--- a/data/clean-data/categories-post.xlsx
+++ b/data/clean-data/categories-post.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pepenunezbenitez/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pepenunezbenitez/Dropbox/Ironhack/project-4/data/clean-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA728FC-DF20-A641-8D4F-EF7C9BC97801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706F31AB-C9AC-5E43-BAF4-05CF7A72BDAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{C3411D12-4CDE-9A47-9640-29E7B5D725B0}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="categories_pre" localSheetId="0">Sheet1!$A$1:$D$73</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{C24CC2C7-ED76-6245-BC1A-A22DE10ADBE6}" name="categories-pre" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/pepenunezbenitez/Downloads/categories-pre.csv" decimal="," thousands="." delimiter=",">
+    <textPr sourceFile="/Users/pepenunezbenitez/Downloads/categories-pre.csv" decimal="," thousands="." delimiter=",">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="155">
   <si>
     <t>Category</t>
   </si>
@@ -551,8 +551,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C50A279-7ED9-D74A-8421-1DB0FAF08F1D}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -886,6 +887,10 @@
     <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -921,11 +926,11 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>1000</v>
+      <c r="E2" s="1">
+        <v>23.076923076923077</v>
+      </c>
+      <c r="F2" s="1">
+        <v>230.76923076923077</v>
       </c>
       <c r="G2">
         <v>145</v>
@@ -936,22 +941,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="F3" s="1">
+        <v>23.076923076923077</v>
       </c>
       <c r="G3">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -962,19 +967,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>100</v>
+      <c r="E4" s="1">
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="F4" s="1">
+        <v>23.076923076923077</v>
       </c>
       <c r="G4">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -985,19 +990,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="F5" s="1">
+        <v>23.076923076923077</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1008,19 +1013,19 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G6">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1031,19 +1036,19 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>1000</v>
-      </c>
-      <c r="F7">
-        <v>10000</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="F7" s="1">
+        <v>23.076923076923077</v>
       </c>
       <c r="G7">
-        <v>126</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1054,19 +1059,19 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1">
+        <v>23.076923076923077</v>
+      </c>
+      <c r="F8" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="G8">
         <v>100</v>
-      </c>
-      <c r="G8">
-        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1074,22 +1079,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>1000</v>
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="F9" s="1">
+        <v>23.076923076923077</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1100,19 +1105,19 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
+        <v>22</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F10" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G10">
-        <v>207</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1123,19 +1128,19 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>10000</v>
-      </c>
-      <c r="F11">
-        <v>100000</v>
+        <v>24</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F11" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G11">
-        <v>3100</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1146,19 +1151,19 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12">
-        <v>10000</v>
-      </c>
-      <c r="F12">
-        <v>100000</v>
+        <v>26</v>
+      </c>
+      <c r="E12" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G12">
-        <v>1746</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1169,19 +1174,19 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1000</v>
-      </c>
-      <c r="F13">
-        <v>10000</v>
+        <v>28</v>
+      </c>
+      <c r="E13" s="1">
+        <v>23.076923076923077</v>
+      </c>
+      <c r="F13" s="1">
+        <v>230.76923076923077</v>
       </c>
       <c r="G13">
-        <v>2214</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1192,19 +1197,19 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>1000</v>
+        <v>30</v>
+      </c>
+      <c r="E14" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G14">
-        <v>1745</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1215,19 +1220,19 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15">
-        <v>1000</v>
-      </c>
-      <c r="F15">
-        <v>10000</v>
+        <v>32</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="F15" s="1">
+        <v>23.076923076923077</v>
       </c>
       <c r="G15">
-        <v>1402</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1238,19 +1243,19 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>100</v>
+        <v>33</v>
+      </c>
+      <c r="E16" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G16">
-        <v>1417</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1261,19 +1266,19 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17">
-        <v>1000</v>
-      </c>
-      <c r="F17">
-        <v>10000</v>
+        <v>35</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="F17" s="1">
+        <v>23.076923076923077</v>
       </c>
       <c r="G17">
-        <v>3100</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1284,19 +1289,19 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>100</v>
+        <v>37</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="F18" s="1">
+        <v>23.076923076923077</v>
       </c>
       <c r="G18">
-        <v>1762</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1304,22 +1309,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F19" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G19">
-        <v>1743</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1330,19 +1335,19 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>10000</v>
-      </c>
-      <c r="F20">
-        <v>100000</v>
+        <v>42</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="F20" s="1">
+        <v>23.076923076923077</v>
       </c>
       <c r="G20">
-        <v>1000</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1353,19 +1358,19 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F21" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G21">
-        <v>3100</v>
+        <v>886</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1376,16 +1381,16 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22">
-        <v>10000</v>
-      </c>
-      <c r="F22">
-        <v>100000</v>
+        <v>46</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F22" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G22">
         <v>886</v>
@@ -1399,19 +1404,19 @@
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23">
-        <v>10000</v>
-      </c>
-      <c r="F23">
-        <v>100000</v>
+        <v>48</v>
+      </c>
+      <c r="E23" s="1">
+        <v>23076.923076923078</v>
+      </c>
+      <c r="F23" s="1">
+        <v>230769.23076923078</v>
       </c>
       <c r="G23">
-        <v>886</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1422,19 +1427,19 @@
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24">
-        <v>100000</v>
-      </c>
-      <c r="F24">
-        <v>1000000</v>
+        <v>50</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="F24" s="1">
+        <v>23.076923076923077</v>
       </c>
       <c r="G24">
-        <v>1483</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1445,19 +1450,19 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-      <c r="F25">
-        <v>100</v>
+        <v>52</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F25" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G25">
-        <v>1146</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1468,19 +1473,19 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26">
-        <v>10000</v>
-      </c>
-      <c r="F26">
-        <v>100000</v>
+        <v>54</v>
+      </c>
+      <c r="E26" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G26">
-        <v>1273</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1491,19 +1496,19 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27">
-        <v>1000</v>
-      </c>
-      <c r="F27">
-        <v>10000</v>
+        <v>56</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F27" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G27">
-        <v>98</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1514,19 +1519,19 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28">
-        <v>10000</v>
-      </c>
-      <c r="F28">
-        <v>100000</v>
+        <v>58</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F28" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G28">
-        <v>426</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1534,22 +1539,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29">
-        <v>10000</v>
-      </c>
-      <c r="F29">
-        <v>100000</v>
+        <v>61</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F29" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G29">
-        <v>167</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1560,19 +1565,19 @@
         <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30">
-        <v>10000</v>
-      </c>
-      <c r="F30">
-        <v>100000</v>
+        <v>63</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F30" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G30">
-        <v>3100</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1583,19 +1588,19 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31">
-        <v>10000</v>
-      </c>
-      <c r="F31">
-        <v>100000</v>
+        <v>65</v>
+      </c>
+      <c r="E31" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G31">
-        <v>679</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1606,19 +1611,19 @@
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32">
-        <v>1000</v>
-      </c>
-      <c r="F32">
-        <v>10000</v>
+        <v>67</v>
+      </c>
+      <c r="E32" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G32">
-        <v>3100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1629,19 +1634,19 @@
         <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33">
-        <v>1000</v>
-      </c>
-      <c r="F33">
-        <v>10000</v>
+        <v>69</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F33" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G33">
-        <v>22</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1652,19 +1657,19 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34">
-        <v>10000</v>
-      </c>
-      <c r="F34">
-        <v>100000</v>
+        <v>71</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F34" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G34">
-        <v>184</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1675,19 +1680,19 @@
         <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35">
-        <v>10000</v>
-      </c>
-      <c r="F35">
-        <v>100000</v>
+        <v>73</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F35" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G35">
-        <v>487</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1698,19 +1703,19 @@
         <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36">
-        <v>10000</v>
-      </c>
-      <c r="F36">
-        <v>100000</v>
+        <v>75</v>
+      </c>
+      <c r="E36" s="1">
+        <v>23.076923076923077</v>
+      </c>
+      <c r="F36" s="1">
+        <v>230.76923076923077</v>
       </c>
       <c r="G36">
-        <v>26</v>
+        <v>937</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1721,19 +1726,19 @@
         <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37">
-        <v>100</v>
-      </c>
-      <c r="F37">
-        <v>1000</v>
+        <v>77</v>
+      </c>
+      <c r="E37" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G37">
-        <v>937</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1744,19 +1749,19 @@
         <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38">
-        <v>1000</v>
-      </c>
-      <c r="F38">
-        <v>10000</v>
+        <v>79</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="F38" s="1">
+        <v>23.076923076923077</v>
       </c>
       <c r="G38">
-        <v>29</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1767,19 +1772,19 @@
         <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39">
-        <v>10</v>
-      </c>
-      <c r="F39">
-        <v>100</v>
+        <v>81</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F39" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G39">
-        <v>529</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1787,22 +1792,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40">
-        <v>10000</v>
-      </c>
-      <c r="F40">
-        <v>100000</v>
+        <v>84</v>
+      </c>
+      <c r="E40" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G40">
-        <v>1294</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1813,19 +1818,19 @@
         <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41">
-        <v>1000</v>
-      </c>
-      <c r="F41">
-        <v>10000</v>
+        <v>86</v>
+      </c>
+      <c r="E41" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G41">
-        <v>178</v>
+        <v>711</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1836,19 +1841,19 @@
         <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42">
-        <v>1000</v>
-      </c>
-      <c r="F42">
-        <v>10000</v>
+        <v>88</v>
+      </c>
+      <c r="E42" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G42">
-        <v>711</v>
+        <v>696</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1859,19 +1864,19 @@
         <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43">
-        <v>1000</v>
-      </c>
-      <c r="F43">
-        <v>10000</v>
+        <v>90</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F43" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G43">
-        <v>696</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1882,19 +1887,19 @@
         <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44">
-        <v>10000</v>
-      </c>
-      <c r="F44">
-        <v>100000</v>
+        <v>92</v>
+      </c>
+      <c r="E44" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G44">
-        <v>1198</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1905,19 +1910,19 @@
         <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45">
-        <v>1000</v>
-      </c>
-      <c r="F45">
-        <v>10000</v>
+        <v>94</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F45" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G45">
-        <v>1843</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1928,19 +1933,19 @@
         <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46">
-        <v>10000</v>
-      </c>
-      <c r="F46">
-        <v>100000</v>
+        <v>96</v>
+      </c>
+      <c r="E46" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G46">
-        <v>223</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1951,19 +1956,19 @@
         <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47">
-        <v>1000</v>
-      </c>
-      <c r="F47">
-        <v>10000</v>
+        <v>98</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F47" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G47">
-        <v>477</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1974,19 +1979,19 @@
         <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48">
-        <v>10000</v>
-      </c>
-      <c r="F48">
-        <v>100000</v>
+        <v>100</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F48" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G48">
-        <v>3100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1994,22 +1999,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49">
-        <v>10000</v>
-      </c>
-      <c r="F49">
-        <v>100000</v>
+        <v>103</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F49" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G49">
-        <v>30</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2020,19 +2025,19 @@
         <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50">
-        <v>10000</v>
-      </c>
-      <c r="F50">
-        <v>100000</v>
+        <v>105</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F50" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G50">
-        <v>1383</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2043,19 +2048,19 @@
         <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51">
-        <v>10000</v>
-      </c>
-      <c r="F51">
-        <v>100000</v>
+        <v>107</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F51" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G51">
-        <v>3100</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2066,19 +2071,19 @@
         <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52">
-        <v>10000</v>
-      </c>
-      <c r="F52">
-        <v>100000</v>
+        <v>109</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F52" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G52">
-        <v>2494</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2089,19 +2094,19 @@
         <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53">
-        <v>10000</v>
-      </c>
-      <c r="F53">
-        <v>100000</v>
+        <v>111</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F53" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G53">
-        <v>3100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2112,19 +2117,19 @@
         <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54">
-        <v>10000</v>
-      </c>
-      <c r="F54">
-        <v>100000</v>
+        <v>113</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F54" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G54">
-        <v>100</v>
+        <v>891</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2135,19 +2140,19 @@
         <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55">
-        <v>10000</v>
-      </c>
-      <c r="F55">
-        <v>100000</v>
+        <v>115</v>
+      </c>
+      <c r="E55" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G55">
-        <v>891</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2158,19 +2163,19 @@
         <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56">
-        <v>1000</v>
-      </c>
-      <c r="F56">
-        <v>10000</v>
+        <v>117</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F56" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G56">
-        <v>43</v>
+        <v>833</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2181,19 +2186,19 @@
         <v>101</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57">
-        <v>10000</v>
-      </c>
-      <c r="F57">
-        <v>100000</v>
+        <v>119</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F57" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G57">
-        <v>833</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2204,19 +2209,19 @@
         <v>101</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
-      </c>
-      <c r="E58">
-        <v>10000</v>
-      </c>
-      <c r="F58">
-        <v>100000</v>
+        <v>121</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F58" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G58">
-        <v>90</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2227,19 +2232,19 @@
         <v>101</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>121</v>
-      </c>
-      <c r="E59">
-        <v>10000</v>
-      </c>
-      <c r="F59">
-        <v>100000</v>
+        <v>123</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F59" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G59">
-        <v>322</v>
+        <v>713</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2247,22 +2252,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60">
-        <v>10000</v>
-      </c>
-      <c r="F60">
-        <v>100000</v>
+        <v>126</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F60" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G60">
-        <v>713</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2273,19 +2278,19 @@
         <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D61" t="s">
-        <v>126</v>
-      </c>
-      <c r="E61">
-        <v>10000</v>
-      </c>
-      <c r="F61">
-        <v>100000</v>
+        <v>128</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F61" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G61">
-        <v>3100</v>
+        <v>957</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2296,19 +2301,19 @@
         <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D62" t="s">
-        <v>128</v>
-      </c>
-      <c r="E62">
-        <v>10000</v>
-      </c>
-      <c r="F62">
-        <v>100000</v>
+        <v>130</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2307.6923076923076</v>
+      </c>
+      <c r="F62" s="1">
+        <v>23076.923076923078</v>
       </c>
       <c r="G62">
-        <v>957</v>
+        <v>522</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2319,19 +2324,19 @@
         <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
-        <v>130</v>
-      </c>
-      <c r="E63">
-        <v>10000</v>
-      </c>
-      <c r="F63">
-        <v>100000</v>
+        <v>132</v>
+      </c>
+      <c r="E63" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G63">
-        <v>522</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2342,19 +2347,19 @@
         <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64">
-        <v>1000</v>
-      </c>
-      <c r="F64">
-        <v>10000</v>
+        <v>134</v>
+      </c>
+      <c r="E64" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G64">
-        <v>1122</v>
+        <v>783</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2365,19 +2370,19 @@
         <v>124</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65">
-        <v>1000</v>
-      </c>
-      <c r="F65">
-        <v>10000</v>
+        <v>136</v>
+      </c>
+      <c r="E65" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G65">
-        <v>783</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2388,19 +2393,19 @@
         <v>124</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66">
-        <v>1000</v>
-      </c>
-      <c r="F66">
-        <v>10000</v>
+        <v>138</v>
+      </c>
+      <c r="E66" s="1">
+        <v>23.076923076923077</v>
+      </c>
+      <c r="F66" s="1">
+        <v>230.76923076923077</v>
       </c>
       <c r="G66">
-        <v>240</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2408,22 +2413,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D67" t="s">
-        <v>138</v>
-      </c>
-      <c r="E67">
-        <v>100</v>
-      </c>
-      <c r="F67">
-        <v>1000</v>
+        <v>141</v>
+      </c>
+      <c r="E67" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G67">
-        <v>1438</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2434,19 +2439,19 @@
         <v>139</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
-      </c>
-      <c r="E68">
-        <v>1000</v>
-      </c>
-      <c r="F68">
-        <v>10000</v>
+        <v>143</v>
+      </c>
+      <c r="E68" s="1">
+        <v>230.76923076923077</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2307.6923076923076</v>
       </c>
       <c r="G68">
-        <v>317</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2457,19 +2462,19 @@
         <v>139</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D69" t="s">
-        <v>143</v>
-      </c>
-      <c r="E69">
-        <v>1000</v>
-      </c>
-      <c r="F69">
-        <v>10000</v>
+        <v>145</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="F69" s="1">
+        <v>23.076923076923077</v>
       </c>
       <c r="G69">
-        <v>111</v>
+        <v>650</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2480,19 +2485,19 @@
         <v>139</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
-      </c>
-      <c r="E70">
-        <v>10</v>
-      </c>
-      <c r="F70">
-        <v>100</v>
+        <v>147</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="F70" s="1">
+        <v>23.076923076923077</v>
       </c>
       <c r="G70">
-        <v>650</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2503,19 +2508,19 @@
         <v>139</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E71">
-        <v>10</v>
-      </c>
-      <c r="F71">
-        <v>100</v>
+        <v>149</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="F71" s="1">
+        <v>23.076923076923077</v>
       </c>
       <c r="G71">
-        <v>44</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2526,41 +2531,18 @@
         <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
-      </c>
-      <c r="E72">
-        <v>10</v>
-      </c>
-      <c r="F72">
-        <v>100</v>
+        <v>151</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="F72" s="1">
+        <v>23.076923076923077</v>
       </c>
       <c r="G72">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" t="s">
-        <v>151</v>
-      </c>
-      <c r="E73">
-        <v>10</v>
-      </c>
-      <c r="F73">
-        <v>100</v>
-      </c>
-      <c r="G73">
         <v>625</v>
       </c>
     </row>
